--- a/Lampiran/Data Embung/DATA PRIORITAS EMBUNG KAB SEMARANG_Edited.xlsx
+++ b/Lampiran/Data Embung/DATA PRIORITAS EMBUNG KAB SEMARANG_Edited.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\File Data\TA\Tugas Akhir - Latest\GitHub\Lampiran\Data Embung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D05235-16E7-47B1-901E-55878F091E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FF78E1-883E-42A6-99AC-D5207B64F0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASPEK TEKNIS" sheetId="1" r:id="rId1"/>
@@ -1035,6 +1035,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -1077,18 +1089,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1936,7 +1936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:W86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
@@ -2780,17 +2780,17 @@
     </row>
     <row r="37" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="F38" s="63"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="64"/>
-      <c r="M38" s="65"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="51"/>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="F39" s="66"/>
+      <c r="F39" s="52"/>
       <c r="G39" s="31" t="s">
         <v>141</v>
       </c>
@@ -2799,10 +2799,10 @@
       <c r="J39" s="31"/>
       <c r="K39" s="31"/>
       <c r="L39" s="28"/>
-      <c r="M39" s="67"/>
+      <c r="M39" s="53"/>
     </row>
     <row r="40" spans="3:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="F40" s="66"/>
+      <c r="F40" s="52"/>
       <c r="G40" s="13" t="s">
         <v>1</v>
       </c>
@@ -2819,10 +2819,10 @@
         <v>152</v>
       </c>
       <c r="L40" s="28"/>
-      <c r="M40" s="67"/>
+      <c r="M40" s="53"/>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="F41" s="66"/>
+      <c r="F41" s="52"/>
       <c r="G41" s="9">
         <v>1</v>
       </c>
@@ -2841,10 +2841,10 @@
       <c r="L41" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="M41" s="67"/>
+      <c r="M41" s="53"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="F42" s="66"/>
+      <c r="F42" s="52"/>
       <c r="G42" s="9"/>
       <c r="H42" s="45" t="s">
         <v>135</v>
@@ -2857,12 +2857,12 @@
         <v>2</v>
       </c>
       <c r="L42" s="28"/>
-      <c r="M42" s="68" t="s">
+      <c r="M42" s="54" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="F43" s="66"/>
+      <c r="F43" s="52"/>
       <c r="G43" s="9"/>
       <c r="H43" s="44" t="s">
         <v>154</v>
@@ -2875,10 +2875,10 @@
         <v>3</v>
       </c>
       <c r="L43" s="28"/>
-      <c r="M43" s="67"/>
+      <c r="M43" s="53"/>
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="F44" s="69"/>
+      <c r="F44" s="55"/>
       <c r="G44" s="9"/>
       <c r="H44" s="44"/>
       <c r="I44" s="9"/>
@@ -2889,10 +2889,10 @@
         <v>4</v>
       </c>
       <c r="L44" s="28"/>
-      <c r="M44" s="67"/>
+      <c r="M44" s="53"/>
     </row>
     <row r="45" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="F45" s="69"/>
+      <c r="F45" s="55"/>
       <c r="G45" s="9"/>
       <c r="H45" s="44"/>
       <c r="I45" s="9"/>
@@ -2903,10 +2903,10 @@
         <v>5</v>
       </c>
       <c r="L45" s="28"/>
-      <c r="M45" s="67"/>
+      <c r="M45" s="53"/>
     </row>
     <row r="46" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F46" s="66"/>
+      <c r="F46" s="52"/>
       <c r="G46" s="9">
         <v>3</v>
       </c>
@@ -2922,13 +2922,13 @@
       <c r="K46" s="46">
         <v>1</v>
       </c>
-      <c r="L46" s="49" t="s">
+      <c r="L46" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="M46" s="67"/>
+      <c r="M46" s="53"/>
     </row>
     <row r="47" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="F47" s="66"/>
+      <c r="F47" s="52"/>
       <c r="G47" s="9"/>
       <c r="H47" s="45" t="s">
         <v>136</v>
@@ -2940,11 +2940,11 @@
       <c r="K47" s="46">
         <v>2</v>
       </c>
-      <c r="L47" s="49"/>
-      <c r="M47" s="67"/>
+      <c r="L47" s="59"/>
+      <c r="M47" s="53"/>
     </row>
     <row r="48" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="F48" s="66"/>
+      <c r="F48" s="52"/>
       <c r="G48" s="9"/>
       <c r="H48" s="44"/>
       <c r="I48" s="9"/>
@@ -2954,11 +2954,11 @@
       <c r="K48" s="46">
         <v>3</v>
       </c>
-      <c r="L48" s="49"/>
-      <c r="M48" s="67"/>
+      <c r="L48" s="59"/>
+      <c r="M48" s="53"/>
     </row>
     <row r="49" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F49" s="66"/>
+      <c r="F49" s="52"/>
       <c r="G49" s="9"/>
       <c r="H49" s="44"/>
       <c r="I49" s="9"/>
@@ -2968,11 +2968,11 @@
       <c r="K49" s="46">
         <v>4</v>
       </c>
-      <c r="L49" s="49"/>
-      <c r="M49" s="67"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="53"/>
     </row>
     <row r="50" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F50" s="66"/>
+      <c r="F50" s="52"/>
       <c r="G50" s="9"/>
       <c r="H50" s="44"/>
       <c r="I50" s="9"/>
@@ -2982,11 +2982,11 @@
       <c r="K50" s="46">
         <v>5</v>
       </c>
-      <c r="L50" s="49"/>
-      <c r="M50" s="67"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="53"/>
     </row>
     <row r="51" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F51" s="66"/>
+      <c r="F51" s="52"/>
       <c r="G51" s="9">
         <v>4</v>
       </c>
@@ -3002,11 +3002,11 @@
       <c r="K51" s="46">
         <v>1</v>
       </c>
-      <c r="L51" s="49"/>
-      <c r="M51" s="67"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="53"/>
     </row>
     <row r="52" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F52" s="66"/>
+      <c r="F52" s="52"/>
       <c r="G52" s="9"/>
       <c r="H52" s="45" t="s">
         <v>136</v>
@@ -3018,11 +3018,11 @@
       <c r="K52" s="46">
         <v>2</v>
       </c>
-      <c r="L52" s="49"/>
-      <c r="M52" s="67"/>
+      <c r="L52" s="59"/>
+      <c r="M52" s="53"/>
     </row>
     <row r="53" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F53" s="66"/>
+      <c r="F53" s="52"/>
       <c r="G53" s="9"/>
       <c r="H53" s="44"/>
       <c r="I53" s="9"/>
@@ -3032,11 +3032,11 @@
       <c r="K53" s="46">
         <v>3</v>
       </c>
-      <c r="L53" s="49"/>
-      <c r="M53" s="67"/>
+      <c r="L53" s="59"/>
+      <c r="M53" s="53"/>
     </row>
     <row r="54" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F54" s="66"/>
+      <c r="F54" s="52"/>
       <c r="G54" s="9"/>
       <c r="H54" s="44"/>
       <c r="I54" s="9"/>
@@ -3046,11 +3046,11 @@
       <c r="K54" s="46">
         <v>4</v>
       </c>
-      <c r="L54" s="49"/>
-      <c r="M54" s="67"/>
+      <c r="L54" s="59"/>
+      <c r="M54" s="53"/>
     </row>
     <row r="55" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F55" s="66"/>
+      <c r="F55" s="52"/>
       <c r="G55" s="9"/>
       <c r="H55" s="44"/>
       <c r="I55" s="9"/>
@@ -3060,21 +3060,21 @@
       <c r="K55" s="46">
         <v>5</v>
       </c>
-      <c r="L55" s="49"/>
-      <c r="M55" s="67"/>
+      <c r="L55" s="59"/>
+      <c r="M55" s="53"/>
     </row>
     <row r="56" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F56" s="66"/>
+      <c r="F56" s="52"/>
       <c r="G56" s="28"/>
       <c r="H56" s="28"/>
       <c r="I56" s="28"/>
       <c r="J56" s="47"/>
       <c r="K56" s="47"/>
-      <c r="L56" s="49"/>
-      <c r="M56" s="67"/>
+      <c r="L56" s="59"/>
+      <c r="M56" s="53"/>
     </row>
     <row r="57" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F57" s="66"/>
+      <c r="F57" s="52"/>
       <c r="G57" s="9">
         <v>2</v>
       </c>
@@ -3090,11 +3090,11 @@
       <c r="K57" s="46">
         <v>1</v>
       </c>
-      <c r="L57" s="49"/>
-      <c r="M57" s="67"/>
+      <c r="L57" s="59"/>
+      <c r="M57" s="53"/>
     </row>
     <row r="58" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F58" s="66"/>
+      <c r="F58" s="52"/>
       <c r="G58" s="9"/>
       <c r="H58" s="45" t="s">
         <v>135</v>
@@ -3106,11 +3106,11 @@
       <c r="K58" s="46">
         <v>2</v>
       </c>
-      <c r="L58" s="49"/>
-      <c r="M58" s="67"/>
+      <c r="L58" s="59"/>
+      <c r="M58" s="53"/>
     </row>
     <row r="59" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F59" s="66"/>
+      <c r="F59" s="52"/>
       <c r="G59" s="9"/>
       <c r="H59" s="44"/>
       <c r="I59" s="9"/>
@@ -3120,11 +3120,11 @@
       <c r="K59" s="46">
         <v>3</v>
       </c>
-      <c r="L59" s="49"/>
-      <c r="M59" s="67"/>
+      <c r="L59" s="59"/>
+      <c r="M59" s="53"/>
     </row>
     <row r="60" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F60" s="66"/>
+      <c r="F60" s="52"/>
       <c r="G60" s="9"/>
       <c r="H60" s="44"/>
       <c r="I60" s="9"/>
@@ -3134,11 +3134,11 @@
       <c r="K60" s="46">
         <v>4</v>
       </c>
-      <c r="L60" s="49"/>
-      <c r="M60" s="67"/>
+      <c r="L60" s="59"/>
+      <c r="M60" s="53"/>
     </row>
     <row r="61" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F61" s="66"/>
+      <c r="F61" s="52"/>
       <c r="G61" s="9"/>
       <c r="H61" s="44"/>
       <c r="I61" s="9"/>
@@ -3148,11 +3148,11 @@
       <c r="K61" s="46">
         <v>5</v>
       </c>
-      <c r="L61" s="49"/>
-      <c r="M61" s="67"/>
+      <c r="L61" s="59"/>
+      <c r="M61" s="53"/>
     </row>
     <row r="62" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F62" s="66"/>
+      <c r="F62" s="52"/>
       <c r="G62" s="9">
         <v>1</v>
       </c>
@@ -3168,11 +3168,11 @@
       <c r="K62" s="46">
         <v>1</v>
       </c>
-      <c r="L62" s="49"/>
-      <c r="M62" s="67"/>
+      <c r="L62" s="59"/>
+      <c r="M62" s="53"/>
     </row>
     <row r="63" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F63" s="66"/>
+      <c r="F63" s="52"/>
       <c r="G63" s="9"/>
       <c r="H63" s="45" t="s">
         <v>135</v>
@@ -3184,11 +3184,11 @@
       <c r="K63" s="46">
         <v>2</v>
       </c>
-      <c r="L63" s="49"/>
-      <c r="M63" s="67"/>
+      <c r="L63" s="59"/>
+      <c r="M63" s="53"/>
     </row>
     <row r="64" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F64" s="69"/>
+      <c r="F64" s="55"/>
       <c r="G64" s="9"/>
       <c r="H64" s="44"/>
       <c r="I64" s="9"/>
@@ -3198,11 +3198,11 @@
       <c r="K64" s="46">
         <v>3</v>
       </c>
-      <c r="L64" s="49"/>
-      <c r="M64" s="67"/>
+      <c r="L64" s="59"/>
+      <c r="M64" s="53"/>
     </row>
     <row r="65" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F65" s="69"/>
+      <c r="F65" s="55"/>
       <c r="G65" s="9"/>
       <c r="H65" s="44"/>
       <c r="I65" s="9"/>
@@ -3212,11 +3212,11 @@
       <c r="K65" s="46">
         <v>4</v>
       </c>
-      <c r="L65" s="49"/>
-      <c r="M65" s="67"/>
+      <c r="L65" s="59"/>
+      <c r="M65" s="53"/>
     </row>
     <row r="66" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F66" s="66"/>
+      <c r="F66" s="52"/>
       <c r="G66" s="9"/>
       <c r="H66" s="44"/>
       <c r="I66" s="9"/>
@@ -3226,11 +3226,11 @@
       <c r="K66" s="46">
         <v>5</v>
       </c>
-      <c r="L66" s="49"/>
-      <c r="M66" s="67"/>
+      <c r="L66" s="59"/>
+      <c r="M66" s="53"/>
     </row>
     <row r="67" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F67" s="66"/>
+      <c r="F67" s="52"/>
       <c r="G67" s="9">
         <v>2</v>
       </c>
@@ -3246,11 +3246,11 @@
       <c r="K67" s="46">
         <v>1</v>
       </c>
-      <c r="L67" s="49"/>
-      <c r="M67" s="67"/>
+      <c r="L67" s="59"/>
+      <c r="M67" s="53"/>
     </row>
     <row r="68" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F68" s="66"/>
+      <c r="F68" s="52"/>
       <c r="G68" s="9"/>
       <c r="H68" s="45" t="s">
         <v>136</v>
@@ -3262,11 +3262,11 @@
       <c r="K68" s="46">
         <v>2</v>
       </c>
-      <c r="L68" s="49"/>
-      <c r="M68" s="67"/>
+      <c r="L68" s="59"/>
+      <c r="M68" s="53"/>
     </row>
     <row r="69" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F69" s="69"/>
+      <c r="F69" s="55"/>
       <c r="G69" s="9"/>
       <c r="H69" s="44"/>
       <c r="I69" s="9"/>
@@ -3276,11 +3276,11 @@
       <c r="K69" s="46">
         <v>3</v>
       </c>
-      <c r="L69" s="49"/>
-      <c r="M69" s="67"/>
+      <c r="L69" s="59"/>
+      <c r="M69" s="53"/>
     </row>
     <row r="70" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F70" s="69"/>
+      <c r="F70" s="55"/>
       <c r="G70" s="9"/>
       <c r="H70" s="44"/>
       <c r="I70" s="9"/>
@@ -3290,11 +3290,11 @@
       <c r="K70" s="46">
         <v>4</v>
       </c>
-      <c r="L70" s="49"/>
-      <c r="M70" s="67"/>
+      <c r="L70" s="59"/>
+      <c r="M70" s="53"/>
     </row>
     <row r="71" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F71" s="66"/>
+      <c r="F71" s="52"/>
       <c r="G71" s="9"/>
       <c r="H71" s="44"/>
       <c r="I71" s="9"/>
@@ -3304,11 +3304,11 @@
       <c r="K71" s="46">
         <v>5</v>
       </c>
-      <c r="L71" s="49"/>
-      <c r="M71" s="67"/>
+      <c r="L71" s="59"/>
+      <c r="M71" s="53"/>
     </row>
     <row r="72" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F72" s="66"/>
+      <c r="F72" s="52"/>
       <c r="G72" s="9">
         <v>2</v>
       </c>
@@ -3327,10 +3327,10 @@
       <c r="L72" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="M72" s="67"/>
+      <c r="M72" s="53"/>
     </row>
     <row r="73" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F73" s="66"/>
+      <c r="F73" s="52"/>
       <c r="G73" s="9"/>
       <c r="H73" s="45" t="s">
         <v>135</v>
@@ -3343,10 +3343,10 @@
         <v>2</v>
       </c>
       <c r="L73" s="28"/>
-      <c r="M73" s="67"/>
+      <c r="M73" s="53"/>
     </row>
     <row r="74" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F74" s="66"/>
+      <c r="F74" s="52"/>
       <c r="G74" s="9"/>
       <c r="H74" s="44" t="s">
         <v>154</v>
@@ -3359,10 +3359,10 @@
         <v>3</v>
       </c>
       <c r="L74" s="28"/>
-      <c r="M74" s="67"/>
+      <c r="M74" s="53"/>
     </row>
     <row r="75" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F75" s="66"/>
+      <c r="F75" s="52"/>
       <c r="G75" s="9"/>
       <c r="H75" s="44"/>
       <c r="I75" s="9"/>
@@ -3373,17 +3373,17 @@
         <v>4</v>
       </c>
       <c r="L75" s="28"/>
-      <c r="M75" s="67"/>
+      <c r="M75" s="53"/>
     </row>
     <row r="76" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F76" s="70"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="71"/>
-      <c r="I76" s="71"/>
-      <c r="J76" s="71"/>
-      <c r="K76" s="71"/>
-      <c r="L76" s="71"/>
-      <c r="M76" s="72"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="57"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="57"/>
+      <c r="J76" s="57"/>
+      <c r="K76" s="57"/>
+      <c r="L76" s="57"/>
+      <c r="M76" s="58"/>
     </row>
     <row r="85" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F85" s="8"/>
@@ -3417,18 +3417,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
@@ -3492,19 +3492,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="52"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="62"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -3647,19 +3647,19 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="52"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="62"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="37">
@@ -3697,19 +3697,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="52"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="62"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
@@ -3844,19 +3844,19 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="52"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="62"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -3925,19 +3925,19 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="52"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="62"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
@@ -4006,19 +4006,19 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
@@ -4056,19 +4056,19 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="52"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="62"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -4176,34 +4176,34 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="52"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="62"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="52"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="62"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="25">
@@ -4241,19 +4241,19 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="55" t="s">
+      <c r="A38" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="57"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="67"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="25">
@@ -4326,19 +4326,19 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="50" t="s">
+      <c r="A41" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="52"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="62"/>
     </row>
     <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
@@ -4399,7 +4399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:T26"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -4431,16 +4431,16 @@
         <v>112</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="62"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="72"/>
       <c r="R3" s="19" t="s">
         <v>116</v>
       </c>
@@ -4782,7 +4782,7 @@
       <c r="S11" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="T11" s="59" t="s">
+      <c r="T11" s="69" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4800,7 +4800,7 @@
       <c r="S12" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="T12" s="59"/>
+      <c r="T12" s="69"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
@@ -4816,7 +4816,7 @@
       <c r="S13" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="T13" s="59"/>
+      <c r="T13" s="69"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
@@ -4826,7 +4826,7 @@
       <c r="S14" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="T14" s="59"/>
+      <c r="T14" s="69"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
@@ -4845,10 +4845,10 @@
     </row>
     <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="58"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="10" t="s">
         <v>115</v>
       </c>
